--- a/data/pca/factorExposure/factorExposure_2015-03-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02307302359815916</v>
+        <v>0.01229071843602707</v>
       </c>
       <c r="C2">
-        <v>0.02413773415811386</v>
+        <v>0.05137685545362194</v>
       </c>
       <c r="D2">
-        <v>0.1489478158018698</v>
+        <v>-0.1200088607232046</v>
       </c>
       <c r="E2">
-        <v>0.06954333346424517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.05095740087019569</v>
+      </c>
+      <c r="F2">
+        <v>0.04255836705428979</v>
+      </c>
+      <c r="G2">
+        <v>0.1381693330054085</v>
+      </c>
+      <c r="H2">
+        <v>0.07390465936481014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04730957633511711</v>
+        <v>0.02060474695190078</v>
       </c>
       <c r="C4">
-        <v>0.07312159255796566</v>
+        <v>0.1091723122605314</v>
       </c>
       <c r="D4">
-        <v>0.1046804100014494</v>
+        <v>-0.1161319246765287</v>
       </c>
       <c r="E4">
-        <v>0.121497390310333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.04973475682713207</v>
+      </c>
+      <c r="F4">
+        <v>0.09979588876123054</v>
+      </c>
+      <c r="G4">
+        <v>0.03626756458910083</v>
+      </c>
+      <c r="H4">
+        <v>-0.06774770475901744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02820131470796231</v>
+        <v>0.03282206564239781</v>
       </c>
       <c r="C6">
-        <v>0.01605819497012217</v>
+        <v>0.0377722509716236</v>
       </c>
       <c r="D6">
-        <v>0.1142457378426316</v>
+        <v>-0.09954083133071856</v>
       </c>
       <c r="E6">
-        <v>0.07562495777948473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08918909091200569</v>
+      </c>
+      <c r="F6">
+        <v>0.04728179440304691</v>
+      </c>
+      <c r="G6">
+        <v>-0.0007564394675874333</v>
+      </c>
+      <c r="H6">
+        <v>0.01214333065657381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001427908869076679</v>
+        <v>0.006704416790878799</v>
       </c>
       <c r="C7">
-        <v>0.02528824082385592</v>
+        <v>0.040164057132584</v>
       </c>
       <c r="D7">
-        <v>0.1111107316864464</v>
+        <v>-0.09072523970030986</v>
       </c>
       <c r="E7">
-        <v>0.04071595857707401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07978749664142357</v>
+      </c>
+      <c r="F7">
+        <v>0.01324356324359726</v>
+      </c>
+      <c r="G7">
+        <v>-0.0006071770265186989</v>
+      </c>
+      <c r="H7">
+        <v>-0.0233177480515746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002601378748465008</v>
+        <v>-0.004623045579042938</v>
       </c>
       <c r="C8">
-        <v>0.02840254818022253</v>
+        <v>0.03837255486241808</v>
       </c>
       <c r="D8">
-        <v>0.0772724652396611</v>
+        <v>-0.05947618880386214</v>
       </c>
       <c r="E8">
-        <v>0.0497494376546071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.05046514915722538</v>
+      </c>
+      <c r="F8">
+        <v>0.04908899133189275</v>
+      </c>
+      <c r="G8">
+        <v>0.07173978514560647</v>
+      </c>
+      <c r="H8">
+        <v>-0.02750524836374944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03710875819700432</v>
+        <v>0.01542045608050763</v>
       </c>
       <c r="C9">
-        <v>0.064708507608064</v>
+        <v>0.09014537859401581</v>
       </c>
       <c r="D9">
-        <v>0.108889819404741</v>
+        <v>-0.1017648458995648</v>
       </c>
       <c r="E9">
-        <v>0.1001364661219799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.04218439077929102</v>
+      </c>
+      <c r="F9">
+        <v>0.06688592757563215</v>
+      </c>
+      <c r="G9">
+        <v>0.01644919445371545</v>
+      </c>
+      <c r="H9">
+        <v>-0.02435400716364468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1834317900862283</v>
+        <v>0.2429174159631581</v>
       </c>
       <c r="C10">
-        <v>-0.1709111412941405</v>
+        <v>-0.09677505214146462</v>
       </c>
       <c r="D10">
-        <v>-0.03790320202687612</v>
+        <v>0.01340614786381436</v>
       </c>
       <c r="E10">
-        <v>0.03835240099974249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02604456006471541</v>
+      </c>
+      <c r="F10">
+        <v>0.03833746184536189</v>
+      </c>
+      <c r="G10">
+        <v>-0.01307533402855194</v>
+      </c>
+      <c r="H10">
+        <v>0.006376519895183803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01734200308526279</v>
+        <v>0.01146586035759621</v>
       </c>
       <c r="C11">
-        <v>0.04185419932734907</v>
+        <v>0.05925261201155292</v>
       </c>
       <c r="D11">
-        <v>0.04693114578808546</v>
+        <v>-0.03868049940844165</v>
       </c>
       <c r="E11">
-        <v>-0.0074875813378861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03830737974071891</v>
+      </c>
+      <c r="F11">
+        <v>-0.01180254787282295</v>
+      </c>
+      <c r="G11">
+        <v>-0.001382218332782234</v>
+      </c>
+      <c r="H11">
+        <v>-0.02071488441341222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01613003188416997</v>
+        <v>0.0119853501806254</v>
       </c>
       <c r="C12">
-        <v>0.04280736395315992</v>
+        <v>0.05160289817657908</v>
       </c>
       <c r="D12">
-        <v>0.06088212931524629</v>
+        <v>-0.04546025642367747</v>
       </c>
       <c r="E12">
-        <v>0.007018489381945893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03447416712885576</v>
+      </c>
+      <c r="F12">
+        <v>-0.01469537252185645</v>
+      </c>
+      <c r="G12">
+        <v>-0.01434530399791219</v>
+      </c>
+      <c r="H12">
+        <v>0.01356867357463793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008292206742233585</v>
+        <v>0.003103632894123849</v>
       </c>
       <c r="C13">
-        <v>0.02751571296543396</v>
+        <v>0.05801522048666779</v>
       </c>
       <c r="D13">
-        <v>0.1295061680653105</v>
+        <v>-0.1529525802555466</v>
       </c>
       <c r="E13">
-        <v>0.07880404705802868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0757079655591355</v>
+      </c>
+      <c r="F13">
+        <v>0.04180526467789844</v>
+      </c>
+      <c r="G13">
+        <v>0.05754089236082811</v>
+      </c>
+      <c r="H13">
+        <v>0.07763751061981806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005172441762493363</v>
+        <v>0.003880755910974873</v>
       </c>
       <c r="C14">
-        <v>0.01971712078853748</v>
+        <v>0.03492224209841865</v>
       </c>
       <c r="D14">
-        <v>0.07968285999965119</v>
+        <v>-0.08546339295903151</v>
       </c>
       <c r="E14">
-        <v>0.03195476264702131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.08452240705477089</v>
+      </c>
+      <c r="F14">
+        <v>0.02987147087835047</v>
+      </c>
+      <c r="G14">
+        <v>0.03214671553863424</v>
+      </c>
+      <c r="H14">
+        <v>0.03323807795856976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003158797457293533</v>
+        <v>-0.003710510277529814</v>
       </c>
       <c r="C15">
-        <v>0.01363788115062431</v>
+        <v>0.03010498225353383</v>
       </c>
       <c r="D15">
-        <v>0.04662934129338046</v>
+        <v>-0.0579976009511858</v>
       </c>
       <c r="E15">
-        <v>0.01168610942130493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.03676332726324111</v>
+      </c>
+      <c r="F15">
+        <v>0.009286595358315173</v>
+      </c>
+      <c r="G15">
+        <v>0.03076010963436817</v>
+      </c>
+      <c r="H15">
+        <v>-0.01006240148054194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01670549404612148</v>
+        <v>0.01069500386258273</v>
       </c>
       <c r="C16">
-        <v>0.03836006683648529</v>
+        <v>0.05182652798401719</v>
       </c>
       <c r="D16">
-        <v>0.05270097255261152</v>
+        <v>-0.04183514290967361</v>
       </c>
       <c r="E16">
-        <v>0.00487704147248281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.04030027797548191</v>
+      </c>
+      <c r="F16">
+        <v>-0.006471909458006603</v>
+      </c>
+      <c r="G16">
+        <v>-0.01182184350607951</v>
+      </c>
+      <c r="H16">
+        <v>-0.00958984184660862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0003926691226978435</v>
+        <v>-0.002561026661739958</v>
       </c>
       <c r="C19">
-        <v>0.02101726160586274</v>
+        <v>0.01619104535313143</v>
       </c>
       <c r="D19">
-        <v>0.07295988094630682</v>
+        <v>-0.04487717694402267</v>
       </c>
       <c r="E19">
-        <v>0.05015832394721215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.001094423933526343</v>
+      </c>
+      <c r="F19">
+        <v>0.01358313742802309</v>
+      </c>
+      <c r="G19">
+        <v>0.02533121036497412</v>
+      </c>
+      <c r="H19">
+        <v>0.02067434066030698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003148512251555487</v>
+        <v>0.004946625351804647</v>
       </c>
       <c r="C20">
-        <v>0.02635906402515869</v>
+        <v>0.0431359055267515</v>
       </c>
       <c r="D20">
-        <v>0.07057145818155111</v>
+        <v>-0.07901644994434483</v>
       </c>
       <c r="E20">
-        <v>0.05426877081621296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04856684280477263</v>
+      </c>
+      <c r="F20">
+        <v>0.02797886084391506</v>
+      </c>
+      <c r="G20">
+        <v>-0.002842402868427451</v>
+      </c>
+      <c r="H20">
+        <v>-0.02986631891169116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01026932456394089</v>
+        <v>0.004590132893297625</v>
       </c>
       <c r="C21">
-        <v>0.03313920965057977</v>
+        <v>0.05023235052196618</v>
       </c>
       <c r="D21">
-        <v>0.1234056507779984</v>
+        <v>-0.111821148182842</v>
       </c>
       <c r="E21">
-        <v>0.1131349607742078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06408472810655039</v>
+      </c>
+      <c r="F21">
+        <v>0.09195968550910127</v>
+      </c>
+      <c r="G21">
+        <v>0.07818107384904668</v>
+      </c>
+      <c r="H21">
+        <v>0.1011026574454529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003406850419148584</v>
+        <v>-0.006865687616383462</v>
       </c>
       <c r="C22">
-        <v>0.05383466102708047</v>
+        <v>0.07995063908242674</v>
       </c>
       <c r="D22">
-        <v>0.2111972952296395</v>
+        <v>-0.2157036990463222</v>
       </c>
       <c r="E22">
-        <v>0.08954961214878981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04991089329599154</v>
+      </c>
+      <c r="F22">
+        <v>0.03955702962789837</v>
+      </c>
+      <c r="G22">
+        <v>0.237268045792634</v>
+      </c>
+      <c r="H22">
+        <v>-0.09758205161499926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003784315300877387</v>
+        <v>-0.003792295723957429</v>
       </c>
       <c r="C23">
-        <v>0.05407029537703766</v>
+        <v>0.08162515064192517</v>
       </c>
       <c r="D23">
-        <v>0.2098728661267342</v>
+        <v>-0.2194302789876376</v>
       </c>
       <c r="E23">
-        <v>0.08969050924941405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0467620186687018</v>
+      </c>
+      <c r="F23">
+        <v>0.04251941543818481</v>
+      </c>
+      <c r="G23">
+        <v>0.2311541187789241</v>
+      </c>
+      <c r="H23">
+        <v>-0.09210559137802099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02312102406911751</v>
+        <v>0.01193046377789958</v>
       </c>
       <c r="C24">
-        <v>0.06038153274592248</v>
+        <v>0.0696780703721863</v>
       </c>
       <c r="D24">
-        <v>0.0673430352341122</v>
+        <v>-0.04397515481335611</v>
       </c>
       <c r="E24">
-        <v>0.009748732454273776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04747828989278714</v>
+      </c>
+      <c r="F24">
+        <v>-0.004810399845663314</v>
+      </c>
+      <c r="G24">
+        <v>0.006768502386561936</v>
+      </c>
+      <c r="H24">
+        <v>-0.008889509079449451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02358098842431504</v>
+        <v>0.01604956047964914</v>
       </c>
       <c r="C25">
-        <v>0.0513323729174266</v>
+        <v>0.06417072256544511</v>
       </c>
       <c r="D25">
-        <v>0.05894021282202488</v>
+        <v>-0.04804295190634039</v>
       </c>
       <c r="E25">
-        <v>0.01510300672034817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03252793764865739</v>
+      </c>
+      <c r="F25">
+        <v>-0.004710128561733395</v>
+      </c>
+      <c r="G25">
+        <v>-0.009296398207648044</v>
+      </c>
+      <c r="H25">
+        <v>-0.00818956922010055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008342218272287887</v>
+        <v>0.01726069158316941</v>
       </c>
       <c r="C26">
-        <v>0.01766211838404507</v>
+        <v>0.03070550418557393</v>
       </c>
       <c r="D26">
-        <v>0.06594364202459911</v>
+        <v>-0.05239904563002565</v>
       </c>
       <c r="E26">
-        <v>0.0387046403146494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0594299842270499</v>
+      </c>
+      <c r="F26">
+        <v>0.04599144583765779</v>
+      </c>
+      <c r="G26">
+        <v>0.03544036639637478</v>
+      </c>
+      <c r="H26">
+        <v>0.007143980656393218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2631388927941856</v>
+        <v>0.3115857828626762</v>
       </c>
       <c r="C28">
-        <v>-0.1897115845779398</v>
+        <v>-0.09562444200337616</v>
       </c>
       <c r="D28">
-        <v>-0.008714601963590351</v>
+        <v>0.01776713529887838</v>
       </c>
       <c r="E28">
-        <v>0.04031977605780997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05566555186459744</v>
+      </c>
+      <c r="F28">
+        <v>0.04528605905516261</v>
+      </c>
+      <c r="G28">
+        <v>0.06178542478428286</v>
+      </c>
+      <c r="H28">
+        <v>-0.005862130316663991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0002251914119116477</v>
+        <v>0.002234169379934516</v>
       </c>
       <c r="C29">
-        <v>0.0230396085570881</v>
+        <v>0.04087660694362569</v>
       </c>
       <c r="D29">
-        <v>0.07606969933847171</v>
+        <v>-0.08947223656854275</v>
       </c>
       <c r="E29">
-        <v>0.03992457110329951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09663127404543019</v>
+      </c>
+      <c r="F29">
+        <v>0.03356133477771098</v>
+      </c>
+      <c r="G29">
+        <v>0.02641762705423525</v>
+      </c>
+      <c r="H29">
+        <v>0.0412319442103616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02959206054667963</v>
+        <v>0.01754742447787863</v>
       </c>
       <c r="C30">
-        <v>0.06996685713309865</v>
+        <v>0.09714660814926372</v>
       </c>
       <c r="D30">
-        <v>0.1498402584115604</v>
+        <v>-0.1185936375674495</v>
       </c>
       <c r="E30">
-        <v>0.06426208322848823</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08729757339471221</v>
+      </c>
+      <c r="F30">
+        <v>0.02278592955402508</v>
+      </c>
+      <c r="G30">
+        <v>0.03310803933519479</v>
+      </c>
+      <c r="H30">
+        <v>-0.04307593185223768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03726928630523677</v>
+        <v>0.01137051990015839</v>
       </c>
       <c r="C31">
-        <v>0.08396159211458767</v>
+        <v>0.09478779889614593</v>
       </c>
       <c r="D31">
-        <v>0.05490759157240534</v>
+        <v>-0.0345423889795159</v>
       </c>
       <c r="E31">
-        <v>0.02715525026029805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02647903069102745</v>
+      </c>
+      <c r="F31">
+        <v>0.01842351250407411</v>
+      </c>
+      <c r="G31">
+        <v>0.02154356664322193</v>
+      </c>
+      <c r="H31">
+        <v>-0.00311466940358546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01757874984947618</v>
+        <v>0.01245130157145504</v>
       </c>
       <c r="C32">
-        <v>0.04174329337115096</v>
+        <v>0.05169024423121223</v>
       </c>
       <c r="D32">
-        <v>0.08517010341896239</v>
+        <v>-0.07840551301592436</v>
       </c>
       <c r="E32">
-        <v>0.07589423595910857</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01461997840139734</v>
+      </c>
+      <c r="F32">
+        <v>0.04887299188542604</v>
+      </c>
+      <c r="G32">
+        <v>0.03656921953574105</v>
+      </c>
+      <c r="H32">
+        <v>0.02464540518789544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007185828092622385</v>
+        <v>0.008077979472131692</v>
       </c>
       <c r="C33">
-        <v>0.04148617756664016</v>
+        <v>0.06268592024467379</v>
       </c>
       <c r="D33">
-        <v>0.1084171701521026</v>
+        <v>-0.1070858445262889</v>
       </c>
       <c r="E33">
-        <v>0.06546360354502738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05940609467521227</v>
+      </c>
+      <c r="F33">
+        <v>0.03026542898158258</v>
+      </c>
+      <c r="G33">
+        <v>0.01715294500810561</v>
+      </c>
+      <c r="H33">
+        <v>-0.0002899821200875355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02134722088444922</v>
+        <v>0.01110351897377607</v>
       </c>
       <c r="C34">
-        <v>0.06109090060619743</v>
+        <v>0.06437046262169012</v>
       </c>
       <c r="D34">
-        <v>0.06227484767311878</v>
+        <v>-0.02472511940795204</v>
       </c>
       <c r="E34">
-        <v>-0.03566395774057525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03939006287926164</v>
+      </c>
+      <c r="F34">
+        <v>-0.03808811493672913</v>
+      </c>
+      <c r="G34">
+        <v>0.005146664319685345</v>
+      </c>
+      <c r="H34">
+        <v>0.002307305684772291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>7.948373670254346e-05</v>
+        <v>0.004067129769322173</v>
       </c>
       <c r="C35">
-        <v>-0.0002039651877699085</v>
+        <v>0.01391432455621515</v>
       </c>
       <c r="D35">
-        <v>-0.0002186136357556876</v>
+        <v>-0.03320583679675969</v>
       </c>
       <c r="E35">
-        <v>4.122232942221714e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01906923833982312</v>
+      </c>
+      <c r="F35">
+        <v>0.01683429449489994</v>
+      </c>
+      <c r="G35">
+        <v>0.002103052842140386</v>
+      </c>
+      <c r="H35">
+        <v>0.005850743329477306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007630309999584991</v>
+        <v>0.01093338666303474</v>
       </c>
       <c r="C36">
-        <v>0.008404720861432043</v>
+        <v>0.02318709198411895</v>
       </c>
       <c r="D36">
-        <v>0.06263489800091503</v>
+        <v>-0.06365166862569487</v>
       </c>
       <c r="E36">
-        <v>0.06146010109553209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04751408940872374</v>
+      </c>
+      <c r="F36">
+        <v>0.05152219917847247</v>
+      </c>
+      <c r="G36">
+        <v>0.02421261020359281</v>
+      </c>
+      <c r="H36">
+        <v>0.002885114402339896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006573273289910318</v>
+        <v>0.01169975154571667</v>
       </c>
       <c r="C38">
-        <v>0.008418837577282351</v>
+        <v>0.02766620293872512</v>
       </c>
       <c r="D38">
-        <v>0.09034848517800098</v>
+        <v>-0.0859332175584428</v>
       </c>
       <c r="E38">
-        <v>0.03317910786233803</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03547159555500474</v>
+      </c>
+      <c r="F38">
+        <v>0.005485858954280968</v>
+      </c>
+      <c r="G38">
+        <v>0.04291662385491785</v>
+      </c>
+      <c r="H38">
+        <v>-0.02941314524308806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0165528681952992</v>
+        <v>0.007233232108022554</v>
       </c>
       <c r="C39">
-        <v>0.06179564647461758</v>
+        <v>0.08471142128507607</v>
       </c>
       <c r="D39">
-        <v>0.1131977105225384</v>
+        <v>-0.08579169739669391</v>
       </c>
       <c r="E39">
-        <v>0.02425155817453185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08335656263565462</v>
+      </c>
+      <c r="F39">
+        <v>-0.004752234571780279</v>
+      </c>
+      <c r="G39">
+        <v>0.005592815050539196</v>
+      </c>
+      <c r="H39">
+        <v>-0.008715638841388554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01659789812065266</v>
+        <v>0.012424383489107</v>
       </c>
       <c r="C40">
-        <v>0.02572033863428315</v>
+        <v>0.04272968510143192</v>
       </c>
       <c r="D40">
-        <v>0.1201374946210711</v>
+        <v>-0.08504823429400905</v>
       </c>
       <c r="E40">
-        <v>0.01685592095813557</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07224954603748263</v>
+      </c>
+      <c r="F40">
+        <v>-0.02485968171712563</v>
+      </c>
+      <c r="G40">
+        <v>0.08595830654149851</v>
+      </c>
+      <c r="H40">
+        <v>0.03596532966730381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01058314767704191</v>
+        <v>0.01870952704358981</v>
       </c>
       <c r="C41">
-        <v>0.004573390561129586</v>
+        <v>0.02280780039976291</v>
       </c>
       <c r="D41">
-        <v>0.03413180551934773</v>
+        <v>-0.04288832446180273</v>
       </c>
       <c r="E41">
-        <v>0.03446147596306792</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01135714977746433</v>
+      </c>
+      <c r="F41">
+        <v>0.02320532882813168</v>
+      </c>
+      <c r="G41">
+        <v>0.013903344176935</v>
+      </c>
+      <c r="H41">
+        <v>-0.002751344944126382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0003652219464778535</v>
+        <v>0.01016756264161553</v>
       </c>
       <c r="C43">
-        <v>0.003245317883647065</v>
+        <v>0.01733833563166621</v>
       </c>
       <c r="D43">
-        <v>0.04777477014494185</v>
+        <v>-0.05003172856475658</v>
       </c>
       <c r="E43">
-        <v>0.03329481030747693</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02590478649187796</v>
+      </c>
+      <c r="F43">
+        <v>0.02422905442960734</v>
+      </c>
+      <c r="G43">
+        <v>0.01549464364211734</v>
+      </c>
+      <c r="H43">
+        <v>-0.01621962540428381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01954274061839937</v>
+        <v>0.01084520508009467</v>
       </c>
       <c r="C44">
-        <v>0.02617677080113577</v>
+        <v>0.04929764667466553</v>
       </c>
       <c r="D44">
-        <v>0.09523068587765744</v>
+        <v>-0.09781070191851965</v>
       </c>
       <c r="E44">
-        <v>0.0806021701057099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06798781796262597</v>
+      </c>
+      <c r="F44">
+        <v>0.04071711179402776</v>
+      </c>
+      <c r="G44">
+        <v>0.04746961599848212</v>
+      </c>
+      <c r="H44">
+        <v>-0.01990540338209534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004373708790529139</v>
+        <v>-0.001526637214193158</v>
       </c>
       <c r="C46">
-        <v>0.03201810804843353</v>
+        <v>0.04340008463223623</v>
       </c>
       <c r="D46">
-        <v>0.08446965390175219</v>
+        <v>-0.06737091935030502</v>
       </c>
       <c r="E46">
-        <v>0.0424563072597401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07283506478668667</v>
+      </c>
+      <c r="F46">
+        <v>0.03598494459419801</v>
+      </c>
+      <c r="G46">
+        <v>0.0376900419581714</v>
+      </c>
+      <c r="H46">
+        <v>0.002842240860240379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07753422448064125</v>
+        <v>0.03240859606715754</v>
       </c>
       <c r="C47">
-        <v>0.1101849489514689</v>
+        <v>0.1273370408587089</v>
       </c>
       <c r="D47">
-        <v>0.06487347796629087</v>
+        <v>-0.0246128822759538</v>
       </c>
       <c r="E47">
-        <v>0.03464454956853246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0006623072656658595</v>
+      </c>
+      <c r="F47">
+        <v>-0.00365797931193757</v>
+      </c>
+      <c r="G47">
+        <v>-0.009979463028570385</v>
+      </c>
+      <c r="H47">
+        <v>-0.008955487723513688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01007878827333703</v>
+        <v>0.01401157370898674</v>
       </c>
       <c r="C48">
-        <v>0.01779408441493486</v>
+        <v>0.03419515074807403</v>
       </c>
       <c r="D48">
-        <v>0.06904232525396715</v>
+        <v>-0.06822734680280811</v>
       </c>
       <c r="E48">
-        <v>0.06759439569060111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0414572654454104</v>
+      </c>
+      <c r="F48">
+        <v>0.05806677819528363</v>
+      </c>
+      <c r="G48">
+        <v>0.03637598938170115</v>
+      </c>
+      <c r="H48">
+        <v>-0.005899072734879322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0003371236903843405</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0002169273138924915</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001222536304317302</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0001044577551214265</v>
+      </c>
+      <c r="F49">
+        <v>-0.0008050291177475946</v>
+      </c>
+      <c r="G49">
+        <v>-0.001059720621904829</v>
+      </c>
+      <c r="H49">
+        <v>-0.0002335209333099256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03375977119086748</v>
+        <v>0.01422995585073085</v>
       </c>
       <c r="C50">
-        <v>0.05843128040535586</v>
+        <v>0.07576899963904608</v>
       </c>
       <c r="D50">
-        <v>0.0620956225325688</v>
+        <v>-0.04528540932349736</v>
       </c>
       <c r="E50">
-        <v>0.02204275022464514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02624026083956573</v>
+      </c>
+      <c r="F50">
+        <v>0.011439771459699</v>
+      </c>
+      <c r="G50">
+        <v>0.02808462498217925</v>
+      </c>
+      <c r="H50">
+        <v>-0.01533380757618858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005660023330799069</v>
+        <v>-0.00349281302341618</v>
       </c>
       <c r="C51">
-        <v>0.007692541655359756</v>
+        <v>0.01831245422872383</v>
       </c>
       <c r="D51">
-        <v>0.06466206633715443</v>
+        <v>-0.04386572911608696</v>
       </c>
       <c r="E51">
-        <v>0.02915907421512522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05117728432099877</v>
+      </c>
+      <c r="F51">
+        <v>0.03589035371730402</v>
+      </c>
+      <c r="G51">
+        <v>0.0513142441410321</v>
+      </c>
+      <c r="H51">
+        <v>0.009845707981251336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1110286382929871</v>
+        <v>0.06160563849748506</v>
       </c>
       <c r="C53">
-        <v>0.1263814106762472</v>
+        <v>0.1597971644602906</v>
       </c>
       <c r="D53">
-        <v>-0.005671774629412259</v>
+        <v>0.01686858689967475</v>
       </c>
       <c r="E53">
-        <v>0.04496238959783191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03161103718463851</v>
+      </c>
+      <c r="F53">
+        <v>0.04273472269354511</v>
+      </c>
+      <c r="G53">
+        <v>0.004065953552061131</v>
+      </c>
+      <c r="H53">
+        <v>-0.009966082646784266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01035908267962945</v>
+        <v>0.01166603682141281</v>
       </c>
       <c r="C54">
-        <v>0.02439541418798394</v>
+        <v>0.04067888565394698</v>
       </c>
       <c r="D54">
-        <v>0.0911492267147147</v>
+        <v>-0.07305177558186629</v>
       </c>
       <c r="E54">
-        <v>0.02770523766971458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.03991454079397478</v>
+      </c>
+      <c r="F54">
+        <v>0.006457624581527098</v>
+      </c>
+      <c r="G54">
+        <v>0.04052157026520189</v>
+      </c>
+      <c r="H54">
+        <v>-0.02165075298172471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0944227122055917</v>
+        <v>0.0440028443871689</v>
       </c>
       <c r="C55">
-        <v>0.1079811960666362</v>
+        <v>0.1289388332759346</v>
       </c>
       <c r="D55">
-        <v>0.001431587677359444</v>
+        <v>0.04236599010476529</v>
       </c>
       <c r="E55">
-        <v>-0.004426432437938358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.005522106679777301</v>
+      </c>
+      <c r="F55">
+        <v>0.003235678314889493</v>
+      </c>
+      <c r="G55">
+        <v>0.01099138114033411</v>
+      </c>
+      <c r="H55">
+        <v>0.008897563097569949</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1344040296826225</v>
+        <v>0.06213605016095591</v>
       </c>
       <c r="C56">
-        <v>0.1482615753000389</v>
+        <v>0.1894350352198291</v>
       </c>
       <c r="D56">
-        <v>0.02441292682477247</v>
+        <v>0.03231742333853894</v>
       </c>
       <c r="E56">
-        <v>0.004114230922121195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0334406538760337</v>
+      </c>
+      <c r="F56">
+        <v>0.009866492774986611</v>
+      </c>
+      <c r="G56">
+        <v>0.05933149507063525</v>
+      </c>
+      <c r="H56">
+        <v>0.002669449165276514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004344193626380389</v>
+        <v>0.004916608683979914</v>
       </c>
       <c r="C58">
-        <v>0.01815550720716912</v>
+        <v>0.06080524444508163</v>
       </c>
       <c r="D58">
-        <v>0.2109351362037371</v>
+        <v>-0.2666592213454237</v>
       </c>
       <c r="E58">
-        <v>0.1700141651235154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.07276465588783698</v>
+      </c>
+      <c r="F58">
+        <v>0.1395698900254264</v>
+      </c>
+      <c r="G58">
+        <v>0.1503874855022625</v>
+      </c>
+      <c r="H58">
+        <v>-0.08219292453007722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1863467097491348</v>
+        <v>0.2568470688552544</v>
       </c>
       <c r="C59">
-        <v>-0.1378151725536405</v>
+        <v>-0.06172802407385602</v>
       </c>
       <c r="D59">
-        <v>0.04588488308617814</v>
+        <v>-0.04704305291700925</v>
       </c>
       <c r="E59">
-        <v>0.04138351313751864</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01572072370452778</v>
+      </c>
+      <c r="F59">
+        <v>0.01856804807730764</v>
+      </c>
+      <c r="G59">
+        <v>0.01627436186211849</v>
+      </c>
+      <c r="H59">
+        <v>0.03754443538625495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1851088840506704</v>
+        <v>0.1568686005261074</v>
       </c>
       <c r="C60">
-        <v>0.0921543854956946</v>
+        <v>0.1633084045298905</v>
       </c>
       <c r="D60">
-        <v>0.1244900452758588</v>
+        <v>-0.03725519102773054</v>
       </c>
       <c r="E60">
-        <v>-0.0842562853599524</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1236896952946678</v>
+      </c>
+      <c r="F60">
+        <v>-0.2015767304291359</v>
+      </c>
+      <c r="G60">
+        <v>-0.2732340264221141</v>
+      </c>
+      <c r="H60">
+        <v>0.09318079319201901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02672165409404854</v>
+        <v>0.01525861792535067</v>
       </c>
       <c r="C61">
-        <v>0.05716884162202174</v>
+        <v>0.07961849188335336</v>
       </c>
       <c r="D61">
-        <v>0.08796738028320321</v>
+        <v>-0.06443360790503919</v>
       </c>
       <c r="E61">
-        <v>0.00991262233075854</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06210048006419438</v>
+      </c>
+      <c r="F61">
+        <v>-0.01448937638368546</v>
+      </c>
+      <c r="G61">
+        <v>-0.003123624084012577</v>
+      </c>
+      <c r="H61">
+        <v>0.00325276392807594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01146648409515431</v>
+        <v>0.01486089763048711</v>
       </c>
       <c r="C63">
-        <v>0.02589806601122933</v>
+        <v>0.04312607006356198</v>
       </c>
       <c r="D63">
-        <v>0.07975550170847576</v>
+        <v>-0.05098793542783272</v>
       </c>
       <c r="E63">
-        <v>0.03653460816527253</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07610641981343028</v>
+      </c>
+      <c r="F63">
+        <v>0.02510977365364481</v>
+      </c>
+      <c r="G63">
+        <v>0.01649564495166793</v>
+      </c>
+      <c r="H63">
+        <v>-0.007992831456450111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05441651113090207</v>
+        <v>0.01841139294143935</v>
       </c>
       <c r="C64">
-        <v>0.0867359488770017</v>
+        <v>0.1037059557107745</v>
       </c>
       <c r="D64">
-        <v>0.02639342416616659</v>
+        <v>-0.01423463818717409</v>
       </c>
       <c r="E64">
-        <v>0.02761635563063279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03432295188929455</v>
+      </c>
+      <c r="F64">
+        <v>0.02196821569572593</v>
+      </c>
+      <c r="G64">
+        <v>-0.01676746134511913</v>
+      </c>
+      <c r="H64">
+        <v>-0.03363602383078394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02636174253290311</v>
+        <v>0.02590618646596348</v>
       </c>
       <c r="C65">
-        <v>0.01798681828834532</v>
+        <v>0.04601530280937863</v>
       </c>
       <c r="D65">
-        <v>0.09856088502018921</v>
+        <v>-0.09887261443699095</v>
       </c>
       <c r="E65">
-        <v>0.03858632639448786</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06991593223477599</v>
+      </c>
+      <c r="F65">
+        <v>-0.002838010214833279</v>
+      </c>
+      <c r="G65">
+        <v>-0.03480869671631309</v>
+      </c>
+      <c r="H65">
+        <v>-0.03155616368335622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02356847340119557</v>
+        <v>0.007762161133368286</v>
       </c>
       <c r="C66">
-        <v>0.07229420368666868</v>
+        <v>0.1045465116260027</v>
       </c>
       <c r="D66">
-        <v>0.131484259248479</v>
+        <v>-0.1108171659395949</v>
       </c>
       <c r="E66">
-        <v>0.02707448200015753</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.07837933939254887</v>
+      </c>
+      <c r="F66">
+        <v>-0.005372385288213255</v>
+      </c>
+      <c r="G66">
+        <v>0.02187958181765952</v>
+      </c>
+      <c r="H66">
+        <v>-0.01249084734678705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02297410342432367</v>
+        <v>0.02182913480749183</v>
       </c>
       <c r="C67">
-        <v>0.02012292674602392</v>
+        <v>0.03724189853175124</v>
       </c>
       <c r="D67">
-        <v>0.05639813874406269</v>
+        <v>-0.04483471044614221</v>
       </c>
       <c r="E67">
-        <v>-0.003446418385401183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03196096677187873</v>
+      </c>
+      <c r="F67">
+        <v>-0.02439202881955604</v>
+      </c>
+      <c r="G67">
+        <v>0.0212306443100336</v>
+      </c>
+      <c r="H67">
+        <v>-0.02016019828692263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.203672404230283</v>
+        <v>0.2782101984784613</v>
       </c>
       <c r="C68">
-        <v>-0.150550293801305</v>
+        <v>-0.07381450326385855</v>
       </c>
       <c r="D68">
-        <v>0.0184812683098352</v>
+        <v>-0.02663110062510132</v>
       </c>
       <c r="E68">
-        <v>0.02425408523580498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001411017628174042</v>
+      </c>
+      <c r="F68">
+        <v>0.02731318687275943</v>
+      </c>
+      <c r="G68">
+        <v>0.05424903036161566</v>
+      </c>
+      <c r="H68">
+        <v>0.003111689987522244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0579332212409802</v>
+        <v>0.01732777826234312</v>
       </c>
       <c r="C69">
-        <v>0.1185175423660075</v>
+        <v>0.1166993098245058</v>
       </c>
       <c r="D69">
-        <v>0.07860332681431352</v>
+        <v>-0.02056863061388546</v>
       </c>
       <c r="E69">
-        <v>0.02571752896288286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0141391216209249</v>
+      </c>
+      <c r="F69">
+        <v>-0.01152021736670991</v>
+      </c>
+      <c r="G69">
+        <v>0.003558874691258677</v>
+      </c>
+      <c r="H69">
+        <v>0.004731890420138052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2181426541049397</v>
+        <v>0.2708594923959107</v>
       </c>
       <c r="C71">
-        <v>-0.1753532492078587</v>
+        <v>-0.08933723952260916</v>
       </c>
       <c r="D71">
-        <v>0.01545769628929078</v>
+        <v>-0.008953232053583339</v>
       </c>
       <c r="E71">
-        <v>0.01128963338200355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007287321012606427</v>
+      </c>
+      <c r="F71">
+        <v>0.01552205186648893</v>
+      </c>
+      <c r="G71">
+        <v>0.04259891742807043</v>
+      </c>
+      <c r="H71">
+        <v>-0.01286278753722264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1014132211459271</v>
+        <v>0.06339636452705065</v>
       </c>
       <c r="C72">
-        <v>0.0735539152466458</v>
+        <v>0.1241961158027542</v>
       </c>
       <c r="D72">
-        <v>0.1195507351924982</v>
+        <v>-0.05548761105373437</v>
       </c>
       <c r="E72">
-        <v>0.01516407992713521</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08602352746691858</v>
+      </c>
+      <c r="F72">
+        <v>-0.0180368729877143</v>
+      </c>
+      <c r="G72">
+        <v>-0.03032039694112063</v>
+      </c>
+      <c r="H72">
+        <v>-0.0005750556246956783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.174916655062581</v>
+        <v>0.159173359707594</v>
       </c>
       <c r="C73">
-        <v>0.06646163153785033</v>
+        <v>0.1597222979934861</v>
       </c>
       <c r="D73">
-        <v>0.2092107212569915</v>
+        <v>-0.05827122105783823</v>
       </c>
       <c r="E73">
-        <v>-0.1375473494873578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3058713275065482</v>
+      </c>
+      <c r="F73">
+        <v>-0.2954853930999087</v>
+      </c>
+      <c r="G73">
+        <v>-0.4268690966357011</v>
+      </c>
+      <c r="H73">
+        <v>0.05721550689254103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1051317997665146</v>
+        <v>0.05432380512250477</v>
       </c>
       <c r="C74">
-        <v>0.1152723590914222</v>
+        <v>0.1411288777464022</v>
       </c>
       <c r="D74">
-        <v>-0.05015825934642357</v>
+        <v>0.04841628512628186</v>
       </c>
       <c r="E74">
-        <v>0.01565170952003245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02824348731648817</v>
+      </c>
+      <c r="F74">
+        <v>0.03114759586195941</v>
+      </c>
+      <c r="G74">
+        <v>-0.01101563549643622</v>
+      </c>
+      <c r="H74">
+        <v>0.0003157318147184102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2241969935176282</v>
+        <v>0.1021493800138105</v>
       </c>
       <c r="C75">
-        <v>0.2019899873831839</v>
+        <v>0.2605566073511748</v>
       </c>
       <c r="D75">
-        <v>-0.05851879592910809</v>
+        <v>0.1156558504075116</v>
       </c>
       <c r="E75">
-        <v>-0.06713401409606323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1194937336086913</v>
+      </c>
+      <c r="F75">
+        <v>-0.04192794293496435</v>
+      </c>
+      <c r="G75">
+        <v>0.114480577946227</v>
+      </c>
+      <c r="H75">
+        <v>-0.0620676494679203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.134805807343573</v>
+        <v>0.06168698001349172</v>
       </c>
       <c r="C76">
-        <v>0.137340354923877</v>
+        <v>0.1766195724764446</v>
       </c>
       <c r="D76">
-        <v>0.0008710805287574968</v>
+        <v>0.05054938384294538</v>
       </c>
       <c r="E76">
-        <v>-0.008125656219178006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03723171706542035</v>
+      </c>
+      <c r="F76">
+        <v>-0.001674686391592123</v>
+      </c>
+      <c r="G76">
+        <v>0.04501270120873331</v>
+      </c>
+      <c r="H76">
+        <v>-0.01079199310463844</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01803174382055711</v>
+        <v>0.000895523870044819</v>
       </c>
       <c r="C77">
-        <v>0.07507053335534582</v>
+        <v>0.1152574621511799</v>
       </c>
       <c r="D77">
-        <v>0.1834390031993566</v>
+        <v>-0.4967382506081787</v>
       </c>
       <c r="E77">
-        <v>0.1835978322317673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7588375440182117</v>
+      </c>
+      <c r="F77">
+        <v>-0.2092491673501182</v>
+      </c>
+      <c r="G77">
+        <v>-0.218864645598061</v>
+      </c>
+      <c r="H77">
+        <v>-0.02080406289588551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03374457307591305</v>
+        <v>0.02316355632169675</v>
       </c>
       <c r="C78">
-        <v>0.07197407745686862</v>
+        <v>0.09514537074881803</v>
       </c>
       <c r="D78">
-        <v>0.146409963333241</v>
+        <v>-0.08963187233753815</v>
       </c>
       <c r="E78">
-        <v>0.09337017778002618</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07982337969773881</v>
+      </c>
+      <c r="F78">
+        <v>0.05273891448277522</v>
+      </c>
+      <c r="G78">
+        <v>0.07751195119402088</v>
+      </c>
+      <c r="H78">
+        <v>0.04868164833289505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1092248495476859</v>
+        <v>0.048763448963523</v>
       </c>
       <c r="C79">
-        <v>0.1979548491804462</v>
+        <v>0.207362809748449</v>
       </c>
       <c r="D79">
-        <v>-0.4825495242266554</v>
+        <v>0.116604830250137</v>
       </c>
       <c r="E79">
-        <v>0.7438988994932544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1109907393621092</v>
+      </c>
+      <c r="F79">
+        <v>0.7796328902757712</v>
+      </c>
+      <c r="G79">
+        <v>-0.4572187160862201</v>
+      </c>
+      <c r="H79">
+        <v>-0.01944832249499408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003341236474405629</v>
+        <v>0.006679903072650125</v>
       </c>
       <c r="C80">
-        <v>0.04430454570525645</v>
+        <v>0.04411843477313682</v>
       </c>
       <c r="D80">
-        <v>0.04794645459355006</v>
+        <v>-0.03200466867806558</v>
       </c>
       <c r="E80">
-        <v>0.008270033897408456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06156940754820624</v>
+      </c>
+      <c r="F80">
+        <v>0.003923967367324935</v>
+      </c>
+      <c r="G80">
+        <v>0.01143788296375744</v>
+      </c>
+      <c r="H80">
+        <v>0.09021886254258955</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1125622284264769</v>
+        <v>0.03874668634810221</v>
       </c>
       <c r="C81">
-        <v>0.1362532575668337</v>
+        <v>0.161098000060037</v>
       </c>
       <c r="D81">
-        <v>-0.07728765112434915</v>
+        <v>0.07082278358390219</v>
       </c>
       <c r="E81">
-        <v>0.007984398139344862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06327210993045312</v>
+      </c>
+      <c r="F81">
+        <v>0.05825918311240074</v>
+      </c>
+      <c r="G81">
+        <v>0.0809181173333168</v>
+      </c>
+      <c r="H81">
+        <v>0.01357560173353537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2373286917349409</v>
+        <v>0.08724016544445999</v>
       </c>
       <c r="C82">
-        <v>0.2965275635536936</v>
+        <v>0.3039858950822123</v>
       </c>
       <c r="D82">
-        <v>-0.1100808997059616</v>
+        <v>0.2211213543641107</v>
       </c>
       <c r="E82">
-        <v>-0.2231391167583786</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1055558293496831</v>
+      </c>
+      <c r="F82">
+        <v>-0.1236442605288808</v>
+      </c>
+      <c r="G82">
+        <v>0.1449373706603627</v>
+      </c>
+      <c r="H82">
+        <v>0.0191185611242523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.009974486070285707</v>
+        <v>-0.009202098446499919</v>
       </c>
       <c r="C83">
-        <v>0.05252269156333401</v>
+        <v>0.01866052127519467</v>
       </c>
       <c r="D83">
-        <v>0.01069300543189294</v>
+        <v>-0.03025809654131</v>
       </c>
       <c r="E83">
-        <v>0.04963897325321733</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08996538365053276</v>
+      </c>
+      <c r="F83">
+        <v>0.07091968874012786</v>
+      </c>
+      <c r="G83">
+        <v>0.1155594379870259</v>
+      </c>
+      <c r="H83">
+        <v>0.9249573186826759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.002167146079796731</v>
+        <v>-0.003147104116786488</v>
       </c>
       <c r="C84">
-        <v>0.003396668375426287</v>
+        <v>0.01833092511158826</v>
       </c>
       <c r="D84">
-        <v>0.007482507790534885</v>
+        <v>-0.04347246428497634</v>
       </c>
       <c r="E84">
-        <v>-0.003439995270445273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01276784704147224</v>
+      </c>
+      <c r="F84">
+        <v>0.03264781358485619</v>
+      </c>
+      <c r="G84">
+        <v>0.06156234606509834</v>
+      </c>
+      <c r="H84">
+        <v>-0.05132955798421042</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1408699642096197</v>
+        <v>0.05730792498703873</v>
       </c>
       <c r="C85">
-        <v>0.1427037948345322</v>
+        <v>0.1771353578797568</v>
       </c>
       <c r="D85">
-        <v>-0.07801603457511692</v>
+        <v>0.1089864813576723</v>
       </c>
       <c r="E85">
-        <v>0.01368571665144033</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02414657899984041</v>
+      </c>
+      <c r="F85">
+        <v>0.0648174936250917</v>
+      </c>
+      <c r="G85">
+        <v>0.02217432452801467</v>
+      </c>
+      <c r="H85">
+        <v>-0.01609651114038977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02002122258058985</v>
+        <v>0.01629120085760601</v>
       </c>
       <c r="C86">
-        <v>0.008716515606704266</v>
+        <v>0.03971722319580112</v>
       </c>
       <c r="D86">
-        <v>0.1042372501684914</v>
+        <v>-0.1115193503957964</v>
       </c>
       <c r="E86">
-        <v>0.05506571915599245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.002638793186844846</v>
+      </c>
+      <c r="F86">
+        <v>0.01928513196606438</v>
+      </c>
+      <c r="G86">
+        <v>-0.01069609432887176</v>
+      </c>
+      <c r="H86">
+        <v>-0.02992420109001799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02130532534961228</v>
+        <v>0.01327502289550463</v>
       </c>
       <c r="C87">
-        <v>0.03190240302544862</v>
+        <v>0.06615509626183379</v>
       </c>
       <c r="D87">
-        <v>0.1352589853135356</v>
+        <v>-0.1344392448497013</v>
       </c>
       <c r="E87">
-        <v>0.09564345487295421</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04868961790975211</v>
+      </c>
+      <c r="F87">
+        <v>0.05134869702312153</v>
+      </c>
+      <c r="G87">
+        <v>0.07652807512724559</v>
+      </c>
+      <c r="H87">
+        <v>0.01464585478407767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05084561456353982</v>
+        <v>0.03546016651209324</v>
       </c>
       <c r="C88">
-        <v>0.04577439192929984</v>
+        <v>0.07034540887035942</v>
       </c>
       <c r="D88">
-        <v>0.002430316220676099</v>
+        <v>-0.01060575935381495</v>
       </c>
       <c r="E88">
-        <v>0.02015184997751493</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03227459254008104</v>
+      </c>
+      <c r="F88">
+        <v>0.01978099442376405</v>
+      </c>
+      <c r="G88">
+        <v>-0.008547271139097919</v>
+      </c>
+      <c r="H88">
+        <v>-0.01868488176874802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3255786402105879</v>
+        <v>0.3970217046372689</v>
       </c>
       <c r="C89">
-        <v>-0.3171829353758967</v>
+        <v>-0.1658313002465263</v>
       </c>
       <c r="D89">
-        <v>0.03811311665324769</v>
+        <v>-0.05808015040364095</v>
       </c>
       <c r="E89">
-        <v>0.1207634011801287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03470820142440149</v>
+      </c>
+      <c r="F89">
+        <v>0.06859341125276171</v>
+      </c>
+      <c r="G89">
+        <v>0.07022733488573436</v>
+      </c>
+      <c r="H89">
+        <v>0.09419326457943646</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2601810495137727</v>
+        <v>0.3212565570708708</v>
       </c>
       <c r="C90">
-        <v>-0.2333138069274287</v>
+        <v>-0.1095895079666823</v>
       </c>
       <c r="D90">
-        <v>0.05577302599613719</v>
+        <v>-0.03317881852943352</v>
       </c>
       <c r="E90">
-        <v>0.006144451847225399</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0008696492953271903</v>
+      </c>
+      <c r="F90">
+        <v>-0.00480127804883319</v>
+      </c>
+      <c r="G90">
+        <v>0.0656607003217017</v>
+      </c>
+      <c r="H90">
+        <v>0.007493252098728051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1484550162481951</v>
+        <v>0.06880516627602642</v>
       </c>
       <c r="C91">
-        <v>0.1913285351216741</v>
+        <v>0.2028333305529622</v>
       </c>
       <c r="D91">
-        <v>-0.09842456348634861</v>
+        <v>0.09964241873067953</v>
       </c>
       <c r="E91">
-        <v>0.03770460518889512</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08532284504081764</v>
+      </c>
+      <c r="F91">
+        <v>0.05656301810250005</v>
+      </c>
+      <c r="G91">
+        <v>0.003541991938039424</v>
+      </c>
+      <c r="H91">
+        <v>0.0206908964161923</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2439044094271576</v>
+        <v>0.332270877258353</v>
       </c>
       <c r="C92">
-        <v>-0.2589547827366964</v>
+        <v>-0.1503387440812082</v>
       </c>
       <c r="D92">
-        <v>-0.04858013327266641</v>
+        <v>-0.02238053758483063</v>
       </c>
       <c r="E92">
-        <v>0.02765967549512663</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06959150480304439</v>
+      </c>
+      <c r="F92">
+        <v>0.04033545153280339</v>
+      </c>
+      <c r="G92">
+        <v>0.02353106994236516</v>
+      </c>
+      <c r="H92">
+        <v>-0.1325813251222619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2836613857035267</v>
+        <v>0.3295174671913517</v>
       </c>
       <c r="C93">
-        <v>-0.2476547634136722</v>
+        <v>-0.1236632003581901</v>
       </c>
       <c r="D93">
-        <v>-0.01879415313979803</v>
+        <v>0.02507666177447603</v>
       </c>
       <c r="E93">
-        <v>-0.003587873973976207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01136527717829913</v>
+      </c>
+      <c r="F93">
+        <v>0.01274086245223042</v>
+      </c>
+      <c r="G93">
+        <v>-0.0183577436463893</v>
+      </c>
+      <c r="H93">
+        <v>-0.03739565948821274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2759487726181712</v>
+        <v>0.1269846219363685</v>
       </c>
       <c r="C94">
-        <v>0.2691728220904854</v>
+        <v>0.3280921068117108</v>
       </c>
       <c r="D94">
-        <v>-0.2197472597153651</v>
+        <v>0.3464776872871466</v>
       </c>
       <c r="E94">
-        <v>-0.3016242271683593</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1373686206407069</v>
+      </c>
+      <c r="F94">
+        <v>-0.1321894126939146</v>
+      </c>
+      <c r="G94">
+        <v>0.298607296921864</v>
+      </c>
+      <c r="H94">
+        <v>-0.06340644624524187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01025979861280206</v>
+        <v>0.01728536778266482</v>
       </c>
       <c r="C95">
-        <v>0.04415321828792077</v>
+        <v>0.07149937006317236</v>
       </c>
       <c r="D95">
-        <v>0.1075733118660277</v>
+        <v>-0.1413875140626441</v>
       </c>
       <c r="E95">
-        <v>0.07548527811176312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.08809576655398767</v>
+      </c>
+      <c r="F95">
+        <v>-0.03520525737396805</v>
+      </c>
+      <c r="G95">
+        <v>-0.05433407568758167</v>
+      </c>
+      <c r="H95">
+        <v>-0.0518906270395564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002347929155857008</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00105731384631563</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0002367302861588478</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003652460469264231</v>
+      </c>
+      <c r="F97">
+        <v>0.0007457998128259245</v>
+      </c>
+      <c r="G97">
+        <v>0.002549311633153502</v>
+      </c>
+      <c r="H97">
+        <v>-0.005142461730526244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1536730521326687</v>
+        <v>0.1368266811264119</v>
       </c>
       <c r="C98">
-        <v>0.09123309720577744</v>
+        <v>0.1621773122083814</v>
       </c>
       <c r="D98">
-        <v>0.1344590459412658</v>
+        <v>-0.01831524917256682</v>
       </c>
       <c r="E98">
-        <v>-0.1299146777594645</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1950378614111137</v>
+      </c>
+      <c r="F98">
+        <v>-0.2436656517143836</v>
+      </c>
+      <c r="G98">
+        <v>-0.3124363271123519</v>
+      </c>
+      <c r="H98">
+        <v>0.07521971151801733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001002162484510261</v>
+        <v>0.002674980167909538</v>
       </c>
       <c r="C101">
-        <v>0.02230343103168703</v>
+        <v>0.04009018277690899</v>
       </c>
       <c r="D101">
-        <v>0.07587876027891111</v>
+        <v>-0.08878660233137026</v>
       </c>
       <c r="E101">
-        <v>0.0408678200211061</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09569253902454104</v>
+      </c>
+      <c r="F101">
+        <v>0.03372287993543621</v>
+      </c>
+      <c r="G101">
+        <v>0.02741363255468321</v>
+      </c>
+      <c r="H101">
+        <v>0.04119265148830681</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1011527459132854</v>
+        <v>0.02460563785020791</v>
       </c>
       <c r="C102">
-        <v>0.1620269390137803</v>
+        <v>0.1425616292173391</v>
       </c>
       <c r="D102">
-        <v>-0.01638421908659347</v>
+        <v>0.09441211977673054</v>
       </c>
       <c r="E102">
-        <v>-0.095969706527556</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05565715401958361</v>
+      </c>
+      <c r="F102">
+        <v>-0.08060434858005225</v>
+      </c>
+      <c r="G102">
+        <v>0.01684266554177803</v>
+      </c>
+      <c r="H102">
+        <v>0.02586936853845562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
